--- a/src/test/java/com/opencart/testdata/test data.xlsx
+++ b/src/test/java/com/opencart/testdata/test data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="4095" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="4095" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>username</t>
   </si>
@@ -30,9 +30,6 @@
     <t>yrtuyt7</t>
   </si>
   <si>
-    <t>balaji10706@gmail.com</t>
-  </si>
-  <si>
     <t>893iuh</t>
   </si>
   <si>
@@ -57,14 +54,65 @@
     <t>12345a</t>
   </si>
   <si>
-    <t>dony@gmail.com</t>
+    <t>toki</t>
+  </si>
+  <si>
+    <t>don@gmail.com</t>
+  </si>
+  <si>
+    <t>don</t>
+  </si>
+  <si>
+    <t>kp@gmail.com</t>
+  </si>
+  <si>
+    <t>maya</t>
+  </si>
+  <si>
+    <t>nin</t>
+  </si>
+  <si>
+    <t>maya@gmail.com</t>
+  </si>
+  <si>
+    <t>3tdwgf</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>62hady</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>3tdwg</t>
+  </si>
+  <si>
+    <t>6@gmail.com</t>
+  </si>
+  <si>
+    <t>10@gmail.com</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>kar@gmail.com</t>
+  </si>
+  <si>
+    <t>sd1234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +121,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -102,9 +159,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -410,7 +468,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,10 +487,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>8939145545</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -445,7 +500,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>32426</v>
@@ -456,7 +511,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -470,10 +525,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,35 +541,65 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -522,12 +607,79 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>